--- a/Fase III - Construcción y Evolución/3. Reporte de Cambios.xlsx
+++ b/Fase III - Construcción y Evolución/3. Reporte de Cambios.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Jonathan\6to semestre\Calidad de SW\Proyecto\BrailleTech\Fase III - Construcción y Evolución\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE2DAF-3118-485D-9403-2BA0007271B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD35359-8626-481F-9C89-EE9D6563F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9576" yWindow="96" windowWidth="11712" windowHeight="12240" firstSheet="1" activeTab="1" xr2:uid="{6115F637-3597-440A-B2DC-B162A531F255}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6115F637-3597-440A-B2DC-B162A531F255}"/>
   </bookViews>
   <sheets>
-    <sheet name="a. Cantidad vs acción" sheetId="1" r:id="rId1"/>
-    <sheet name="b. Cantidad vs clasificación" sheetId="2" r:id="rId2"/>
-    <sheet name="c. Cantidad vs prioridad" sheetId="3" r:id="rId3"/>
+    <sheet name="Reporte de cambios" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="25" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +37,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
-    <t>a. Cantidad de cambios vs la acción</t>
+    <t>Acción</t>
   </si>
   <si>
-    <t>b. Cantidad de cambios vs clasificación</t>
+    <t>Clasificación</t>
   </si>
   <si>
-    <t>c. Cantidad de cambios vs prioridad</t>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>N° cambio</t>
+  </si>
+  <si>
+    <t>CR01</t>
+  </si>
+  <si>
+    <t>CR02</t>
+  </si>
+  <si>
+    <t>CR03</t>
+  </si>
+  <si>
+    <t>CR04</t>
+  </si>
+  <si>
+    <t>CR05</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Rechazado</t>
+  </si>
+  <si>
+    <t>No funcional</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Cuenta de Acción</t>
+  </si>
+  <si>
+    <t>Cuenta de Clasificación</t>
+  </si>
+  <si>
+    <t>Cuenta de Prioridad</t>
   </si>
 </sst>
 </file>
@@ -60,11 +118,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Open Sans"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,9 +132,47 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -87,14 +182,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -105,6 +249,3617 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[3. Reporte de Cambios.xlsx]Reporte de cambios!TablaDinámica5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>a. Cantidad de cambios vs la acción</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reporte de cambios'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9DD1-42BC-B9A9-A99603E4FE47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9DD1-42BC-B9A9-A99603E4FE47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9DD1-42BC-B9A9-A99603E4FE47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reporte de cambios'!$A$9:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Aprobado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pendiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rechazado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reporte de cambios'!$B$9:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DD1-42BC-B9A9-A99603E4FE47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1926775056"/>
+        <c:axId val="1926787952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1926775056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926787952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926787952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926775056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[3. Reporte de Cambios.xlsx]Reporte de cambios!TablaDinámica7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>b. Cantidad de cambios vs clasificación</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reporte de cambios'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2CA2-4326-9A91-9479C68284CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2CA2-4326-9A91-9479C68284CA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reporte de cambios'!$F$2:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Funcional</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No funcional</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reporte de cambios'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CA2-4326-9A91-9479C68284CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1926765488"/>
+        <c:axId val="1926782128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1926765488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926782128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926782128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926765488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[3. Reporte de Cambios.xlsx]Reporte de cambios!TablaDinámica8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>c. Cantidad de cambios vs prioridad</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-EC"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Reporte de cambios'!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F3EA-4EC3-9F70-103451BDDAB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F3EA-4EC3-9F70-103451BDDAB5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Reporte de cambios'!$F$16:$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Alta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Baja</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Reporte de cambios'!$G$16:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F3EA-4EC3-9F70-103451BDDAB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1926769648"/>
+        <c:axId val="1926766320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1926769648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926766320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1926766320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926769648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4792660-CF08-45D8-9814-FFC192FF8C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32364AD-A753-4E94-A248-BC5079150C20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6966F1C2-6FAF-4D3C-83A5-2B832E0EF137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jonathan Poaquiza" refreshedDate="45518.183572337963" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="5" xr:uid="{3E16FF2B-838D-464F-9E0A-412CE8DE19C9}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="N° cambio" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Acción" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Pendiente"/>
+        <s v="Aprobado"/>
+        <s v="Rechazado"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Clasificación" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Funcional"/>
+        <s v="No funcional"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Prioridad" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Baja"/>
+        <s v="Alta"/>
+        <s v="Media"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <s v="CR01"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="CR02"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="CR03"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="CR04"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="CR05"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8676732-6205-4A2C-AF33-64ABCB329865}" name="TablaDinámica8" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F15:G19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Prioridad" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFCAA028-9373-4341-88BE-4DE08EC47E2C}" name="TablaDinámica7" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F1:G4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Clasificación" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C89FA3FB-B84A-4FB0-A7A0-FF211CCD9D9B}" name="TablaDinámica5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A8:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Acción" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{21FE1C42-5B54-445F-BFE3-660593502700}" name="Tabla2" displayName="Tabla2" ref="A1:D6" totalsRowShown="0">
+  <autoFilter ref="A1:D6" xr:uid="{21FE1C42-5B54-445F-BFE3-660593502700}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B0CA2901-CD36-4025-B1C9-86F7F2D2210F}" name="N° cambio"/>
+    <tableColumn id="2" xr3:uid="{AF781196-02FA-485B-8C10-2EF01503155E}" name="Acción"/>
+    <tableColumn id="3" xr3:uid="{361B34A6-468F-4D6F-9C87-FC8678F44A7A}" name="Clasificación"/>
+    <tableColumn id="4" xr3:uid="{7B053B74-AFA0-4933-827C-3B5E37D9377B}" name="Prioridad"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,55 +4159,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224D2303-7ED4-4512-A671-94F2AB6D8A88}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E16" s="4"/>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+    </row>
+    <row r="19" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E20" s="4"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+    </row>
+    <row r="22" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E22" s="4"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E26" s="4"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E27" s="4"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E28" s="4"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E29" s="4"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+    </row>
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E30" s="4"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E31" s="4"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E32" s="4"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E33" s="4"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E34" s="4"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+    </row>
+    <row r="43" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E43" s="4"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+    </row>
+    <row r="45" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E45" s="4"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E46" s="4"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+    </row>
+    <row r="47" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:D6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E8D0CC3C-CDC5-4AAB-9E70-13EF9A324019}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA7F6C1-C3C1-4E80-AAF7-9111FAA8B762}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B628A0B-0216-454C-A02C-53A75202E9D9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8D0CC3C-CDC5-4AAB-9E70-13EF9A324019}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:D6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>